--- a/report/by_model_sampling_seq.xlsx
+++ b/report/by_model_sampling_seq.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,7 +731,7 @@
         <v>0.5372378986615401</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02903769753632606</v>
+        <v>0.02903769753632603</v>
       </c>
       <c r="H7" t="n">
         <v>0.5882715582847595</v>
@@ -768,7 +768,7 @@
         <v>0.5300985148974827</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03812756575499345</v>
+        <v>0.03812756575499347</v>
       </c>
       <c r="H8" t="n">
         <v>0.5959523916244507</v>
@@ -996,7 +996,7 @@
         <v>0.6349045298993587</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1137133741776953</v>
+        <v>0.1137133741776952</v>
       </c>
       <c r="H14" t="n">
         <v>0.7316893339157104</v>
@@ -1037,7 +1037,7 @@
         <v>0.5005928501486778</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002689690788447323</v>
+        <v>0.002689690788447328</v>
       </c>
       <c r="H15" t="n">
         <v>0.5043714046478271</v>
@@ -1046,7 +1046,7 @@
         <v>0.497826986014843</v>
       </c>
       <c r="J15" t="n">
-        <v>0.004346027970314057</v>
+        <v>0.004346027970314058</v>
       </c>
       <c r="K15" t="n">
         <v>0.5</v>
@@ -1120,7 +1120,7 @@
         <v>0.7017241418361664</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2115390728182144</v>
+        <v>0.2115390728182143</v>
       </c>
       <c r="K17" t="n">
         <v>0.9092668294906616</v>
@@ -1194,7 +1194,7 @@
         <v>0.634121760725975</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2082264733237574</v>
+        <v>0.2082264733237575</v>
       </c>
       <c r="K19" t="n">
         <v>0.9055335521697998</v>
@@ -1226,7 +1226,7 @@
         <v>0.5003889004389445</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0006735953193377259</v>
+        <v>0.0006735953193377018</v>
       </c>
       <c r="H20" t="n">
         <v>0.5011667013168335</v>
@@ -1235,7 +1235,7 @@
         <v>0.5034000078837076</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005888986400716457</v>
+        <v>0.005888986400716433</v>
       </c>
       <c r="K20" t="n">
         <v>0.510200023651123</v>
@@ -1328,117 +1328,157 @@
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>AVG</t>
+          <t>LAST</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>commonsense then LFB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>0.484499990940094</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>0.5453666508197784</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1376878694940337</v>
+      </c>
       <c r="H23" t="n">
-        <v>0.484499990940094</v>
+        <v>0.7883332371711731</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4986666738986969</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0.6313154399394989</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.1830411377900389</v>
+      </c>
       <c r="K23" t="n">
-        <v>0.4986666738986969</v>
+        <v>0.9233332872390748</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3777265936889092</v>
+        <v>0.3815122129423106</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3777265936889092</v>
+        <v>0.387698652504441</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>commonsense then LFB</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4985000044107437</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.0007071187508915246</v>
-      </c>
+        <v>0.484499990940094</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.4990000128746033</v>
+        <v>0.484499990940094</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4998889118432999</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.002042752380201756</v>
-      </c>
+        <v>0.4986666738986969</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>0.5013333559036255</v>
+        <v>0.4986666738986969</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3434749074039594</v>
+        <v>0.3777265936889092</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3636464835507143</v>
+        <v>0.3777265936889092</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.4985000044107437</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0007071187508915246</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.4990000128746033</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.4998889118432999</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.002042752380201756</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.5013333559036255</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3434749074039594</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3636464835507143</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>LAST</t>
         </is>
       </c>
-      <c r="D25" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>4</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.489295095205307</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.02760579397979206</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.517241358757019</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.5643540695309639</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.09143447474620901</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.6997318863868713</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>commonsense then LFB</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.765999972820282</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0.765999972820282</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.8986666798591614</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>0.8986666798591614</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.3783628417562105</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.3783628417562105</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A12:A21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C23:C24"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="B4:B6"/>
@@ -1450,10 +1490,11 @@
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B12:B21"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
